--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
   <si>
     <t>school</t>
   </si>
@@ -180,6 +180,144 @@
   </si>
   <si>
     <t xml:space="preserve">http://uwbadgers.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>boston_college.py</t>
+  </si>
+  <si>
+    <t>florida_state.py</t>
+  </si>
+  <si>
+    <t>georgia_tech.py</t>
+  </si>
+  <si>
+    <t>nc_state.py</t>
+  </si>
+  <si>
+    <t>notre_dame.py</t>
+  </si>
+  <si>
+    <t>virginia_tech.py</t>
+  </si>
+  <si>
+    <t>clemson.py</t>
+  </si>
+  <si>
+    <t>duke.py</t>
+  </si>
+  <si>
+    <t>louisville.py</t>
+  </si>
+  <si>
+    <t>miami.py</t>
+  </si>
+  <si>
+    <t>pitt.py</t>
+  </si>
+  <si>
+    <t>syracuse.py</t>
+  </si>
+  <si>
+    <t>virginia.py</t>
+  </si>
+  <si>
+    <t>wake_forest.py</t>
+  </si>
+  <si>
+    <t>north_carolina.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bceagles.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.clemsontigers.com/SportSelect.dbml?DB_OEM_ID=28500&amp;SPID=103701&amp;SPSID=657772 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.goduke.com/SportSelect.dbml?DB_OEM_ID=4200&amp;SPID=1843&amp;SPSID=22667 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gocards.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t>http://www.ramblinwreck.com/sports/m-footbl/mtt/geot-m-footbl-mtt.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://seminoles.com/sports/football/roster/season/2017-18/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hurricanesports.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gopack.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goheels.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.und.com/sports/m-footbl/mtt/nd-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://pittsburghpanthers.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cuse.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.virginiasports.com/sports/m-footbl/mtt/va-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wakeforestsports.com/sports/m-footbl/mtt/wake-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hokiesports.com/football/players/ </t>
   </si>
 </sst>
 </file>
@@ -510,10 +648,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,6 +1053,396 @@
       </c>
       <c r="H15" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43204</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43205</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -931,6 +1461,21 @@
     <hyperlink ref="H12" r:id="rId12"/>
     <hyperlink ref="H14" r:id="rId13"/>
     <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H21" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H19" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H30" r:id="rId28"/>
+    <hyperlink ref="H29" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
   <si>
     <t>school</t>
   </si>
@@ -318,6 +318,135 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.hokiesports.com/football/players/ </t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>alabama.py</t>
+  </si>
+  <si>
+    <t>arkansas.py</t>
+  </si>
+  <si>
+    <t>auburn.py</t>
+  </si>
+  <si>
+    <t>florida.py</t>
+  </si>
+  <si>
+    <t>georgia.py</t>
+  </si>
+  <si>
+    <t>kentucky.py</t>
+  </si>
+  <si>
+    <t>lsu.py</t>
+  </si>
+  <si>
+    <t>missouri.py</t>
+  </si>
+  <si>
+    <t>tennessee.py</t>
+  </si>
+  <si>
+    <t>vanderbilt.py</t>
+  </si>
+  <si>
+    <t>miss_state.py</t>
+  </si>
+  <si>
+    <t>Miss. State</t>
+  </si>
+  <si>
+    <t>ole_miss.py</t>
+  </si>
+  <si>
+    <t>south_carolina.py</t>
+  </si>
+  <si>
+    <t>texas_am.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.rolltide.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.arkansasrazorbacks.com/sport/m-footbl/roster/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.auburntigers.com/sports/m-footbl/mtt/aub-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://floridagators.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://georgiadogs.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ukathletics.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lsusports.net/SportSelect.dbml?DB_OEM_ID=5200&amp;SPID=2164&amp;SPSID=27812 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hailstate.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mutigers.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.olemisssports.com/sports/m-footbl/mtt/ole-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gamecocksonline.com/sports/m-footbl/mtt/scar-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://utsports.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://12thman.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t>http://www.vucommodores.com/sports/m-footbl/mtt/vand-m-footbl-mtt.html</t>
   </si>
 </sst>
 </file>
@@ -648,12 +777,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,6 +1572,370 @@
       </c>
       <c r="H30" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43208</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43206</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>43208</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1476,6 +1969,20 @@
     <hyperlink ref="H28" r:id="rId27"/>
     <hyperlink ref="H30" r:id="rId28"/>
     <hyperlink ref="H29" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
+    <hyperlink ref="H34" r:id="rId33"/>
+    <hyperlink ref="H35" r:id="rId34"/>
+    <hyperlink ref="H36" r:id="rId35"/>
+    <hyperlink ref="H37" r:id="rId36"/>
+    <hyperlink ref="H38" r:id="rId37"/>
+    <hyperlink ref="H39" r:id="rId38"/>
+    <hyperlink ref="H40" r:id="rId39"/>
+    <hyperlink ref="H41" r:id="rId40"/>
+    <hyperlink ref="H42" r:id="rId41"/>
+    <hyperlink ref="H43" r:id="rId42"/>
+    <hyperlink ref="H44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
   <si>
     <t>school</t>
   </si>
@@ -447,6 +447,99 @@
   </si>
   <si>
     <t>http://www.vucommodores.com/sports/m-footbl/mtt/vand-m-footbl-mtt.html</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Big 12</t>
+  </si>
+  <si>
+    <t>baylor.py</t>
+  </si>
+  <si>
+    <t>iowa state.py</t>
+  </si>
+  <si>
+    <t>kansas.py</t>
+  </si>
+  <si>
+    <t>oklahoma.py</t>
+  </si>
+  <si>
+    <t>tcu.py</t>
+  </si>
+  <si>
+    <t>texas.py</t>
+  </si>
+  <si>
+    <t>kansas_state.py</t>
+  </si>
+  <si>
+    <t>oklahoma_state.py</t>
+  </si>
+  <si>
+    <t>texas_tech.py</t>
+  </si>
+  <si>
+    <t>west_virginia.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.baylorbears.com/sports/m-footbl/mtt/bay-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cyclones.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kuathletics.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kstatesports.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.soonersports.com/SportSelect.dbml?DB_OEM_ID=31000&amp;SPID=127245&amp;SPSID=750326 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://okstate.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gofrogs.com/sports/m-footbl/mtt/tcu-m-footbl-mtt.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://texassports.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://texastech.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wvusports.com/roster.aspx?path=football </t>
   </si>
 </sst>
 </file>
@@ -777,12 +870,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1936,6 +2029,266 @@
       </c>
       <c r="H44" s="2" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>43211</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>43212</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>43212</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>43212</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1983,6 +2336,16 @@
     <hyperlink ref="H42" r:id="rId41"/>
     <hyperlink ref="H43" r:id="rId42"/>
     <hyperlink ref="H44" r:id="rId43"/>
+    <hyperlink ref="H45" r:id="rId44"/>
+    <hyperlink ref="H46" r:id="rId45"/>
+    <hyperlink ref="H47" r:id="rId46"/>
+    <hyperlink ref="H48" r:id="rId47"/>
+    <hyperlink ref="H49" r:id="rId48"/>
+    <hyperlink ref="H50" r:id="rId49"/>
+    <hyperlink ref="H51" r:id="rId50"/>
+    <hyperlink ref="H52" r:id="rId51"/>
+    <hyperlink ref="H53" r:id="rId52"/>
+    <hyperlink ref="H54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="208">
   <si>
     <t>school</t>
   </si>
@@ -540,6 +540,117 @@
   </si>
   <si>
     <t xml:space="preserve">https://wvusports.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Pac-12</t>
+  </si>
+  <si>
+    <t>arizona.py</t>
+  </si>
+  <si>
+    <t>cal.py</t>
+  </si>
+  <si>
+    <t>colorado.py</t>
+  </si>
+  <si>
+    <t>oregon.py</t>
+  </si>
+  <si>
+    <t>stanford.py</t>
+  </si>
+  <si>
+    <t>ucla.py</t>
+  </si>
+  <si>
+    <t>usc.py</t>
+  </si>
+  <si>
+    <t>utah.py</t>
+  </si>
+  <si>
+    <t>washington.py</t>
+  </si>
+  <si>
+    <t>arizona_state.py</t>
+  </si>
+  <si>
+    <t>oregon_state.py</t>
+  </si>
+  <si>
+    <t>washington_state.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://arizonawildcats.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thesundevils.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://calbears.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cubuffs.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goducks.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://osubeavers.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gostanford.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://uclabruins.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://usctrojans.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://utahutes.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gohuskies.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wsucougars.com/roster.aspx?path=football </t>
   </si>
 </sst>
 </file>
@@ -870,19 +981,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="99.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2289,6 +2400,318 @@
       </c>
       <c r="H54" s="2" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>43215</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>43215</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43231</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>43231</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>43232</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2346,6 +2769,18 @@
     <hyperlink ref="H52" r:id="rId51"/>
     <hyperlink ref="H53" r:id="rId52"/>
     <hyperlink ref="H54" r:id="rId53"/>
+    <hyperlink ref="H55" r:id="rId54"/>
+    <hyperlink ref="H56" r:id="rId55"/>
+    <hyperlink ref="H57" r:id="rId56"/>
+    <hyperlink ref="H58" r:id="rId57"/>
+    <hyperlink ref="H59" r:id="rId58"/>
+    <hyperlink ref="H60" r:id="rId59"/>
+    <hyperlink ref="H61" r:id="rId60"/>
+    <hyperlink ref="H62" r:id="rId61"/>
+    <hyperlink ref="H63" r:id="rId62"/>
+    <hyperlink ref="H64" r:id="rId63"/>
+    <hyperlink ref="H65" r:id="rId64"/>
+    <hyperlink ref="H66" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -984,9 +984,9 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>43200</v>
+        <v>43232</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>40</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>43200</v>
+        <v>43232</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>43</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>43200</v>
+        <v>43232</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>49</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>43204</v>
+        <v>43232</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>82</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>43204</v>
+        <v>43232</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>88</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>43204</v>
+        <v>43232</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>90</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>43205</v>
+        <v>43232</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>92</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>43205</v>
+        <v>43232</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>93</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>43205</v>
+        <v>43232</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>96</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>126</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>130</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>131</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>133</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>134</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>137</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43206</v>
+        <v>43232</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>138</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>43211</v>
+        <v>43232</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>162</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>43211</v>
+        <v>43232</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>163</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>43211</v>
+        <v>43232</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>164</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>43212</v>
+        <v>43232</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>168</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>43212</v>
+        <v>43232</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>169</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>43212</v>
+        <v>43232</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>170</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>43215</v>
+        <v>43232</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>196</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>43215</v>
+        <v>43232</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>197</v>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -485,9 +485,6 @@
     <t>baylor.py</t>
   </si>
   <si>
-    <t>iowa state.py</t>
-  </si>
-  <si>
     <t>kansas.py</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://wsucougars.com/roster.aspx?path=football </t>
+  </si>
+  <si>
+    <t>iowa_state.py</t>
   </si>
 </sst>
 </file>
@@ -984,9 +984,9 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>43204</v>
+        <v>43233</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>85</v>
@@ -2165,7 +2165,7 @@
         <v>43211</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2176,7 +2176,7 @@
         <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>43232</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2202,7 +2202,7 @@
         <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>43232</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2228,7 +2228,7 @@
         <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>43232</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>43211</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2280,7 +2280,7 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>43211</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -2306,7 +2306,7 @@
         <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>43211</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2332,7 +2332,7 @@
         <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>43232</v>
+        <v>43233</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2358,7 +2358,7 @@
         <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>43232</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2384,7 +2384,7 @@
         <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>43232</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
         <v>183</v>
       </c>
-      <c r="C55" t="s">
-        <v>184</v>
-      </c>
       <c r="D55">
         <v>0</v>
       </c>
@@ -2425,18 +2425,18 @@
         <v>43232</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2451,18 +2451,18 @@
         <v>43232</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2477,18 +2477,18 @@
         <v>43231</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2503,18 +2503,18 @@
         <v>43231</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2529,18 +2529,18 @@
         <v>43232</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2555,18 +2555,18 @@
         <v>43232</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2581,18 +2581,18 @@
         <v>43232</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2607,18 +2607,18 @@
         <v>43232</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2633,18 +2633,18 @@
         <v>43232</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2659,18 +2659,18 @@
         <v>43232</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2685,18 +2685,18 @@
         <v>43232</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
         <v>182</v>
       </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>43232</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$66</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -317,9 +317,6 @@
     <t xml:space="preserve">http://www.wakeforestsports.com/sports/m-footbl/mtt/wake-m-footbl-mtt.html </t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.hokiesports.com/football/players/ </t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>iowa_state.py</t>
+  </si>
+  <si>
+    <t>https://hokiesports.com/roster.aspx?path=football</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>40</v>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>43200</v>
+        <v>43280</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>41</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>43</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>42</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>44</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>43200</v>
+        <v>43280</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>45</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>46</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>48</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>49</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>43200</v>
+        <v>43277</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>50</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>82</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>43204</v>
+        <v>43280</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>83</v>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>43204</v>
+        <v>43280</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>84</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>43204</v>
+        <v>43277</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>87</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>43204</v>
+        <v>43277</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>86</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>43233</v>
+        <v>43277</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>85</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>88</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>43204</v>
+        <v>43277</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>89</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>90</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>43205</v>
+        <v>43277</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>91</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>92</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>93</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>43205</v>
+        <v>43277</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>94</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>43205</v>
+        <v>43277</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>95</v>
@@ -1780,14 +1780,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
       <c r="D31">
         <v>0</v>
       </c>
@@ -1798,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1824,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>43207</v>
+        <v>43277</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1850,47 +1850,47 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>43207</v>
+        <v>43277</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>43207</v>
+        <v>43277</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1902,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1928,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1954,21 +1954,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>43207</v>
+        <v>43280</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1980,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2006,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2032,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>43207</v>
+        <v>43277</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2058,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>43208</v>
+        <v>43277</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2084,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2110,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-      <c r="B44" t="s">
-        <v>110</v>
-      </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2136,22 +2136,22 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>43208</v>
+        <v>43277</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
         <v>150</v>
       </c>
-      <c r="C45" t="s">
-        <v>151</v>
-      </c>
       <c r="D45">
         <v>1</v>
       </c>
@@ -2162,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>43211</v>
+        <v>43277</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2188,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2214,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2240,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2266,21 +2266,21 @@
         <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>43211</v>
+        <v>43280</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2292,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>43211</v>
+        <v>43277</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2318,21 +2318,21 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>43211</v>
+        <v>43277</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2344,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>43233</v>
+        <v>43277</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2370,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
-        <v>150</v>
-      </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>43232</v>
+        <v>43277</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
         <v>182</v>
       </c>
-      <c r="C55" t="s">
-        <v>183</v>
-      </c>
       <c r="D55">
         <v>0</v>
       </c>
@@ -2422,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2448,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2474,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>43231</v>
+        <v>43280</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2500,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>43231</v>
+        <v>43280</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2526,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2552,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2578,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2604,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2630,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2656,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2682,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
         <v>181</v>
       </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>43232</v>
+        <v>43280</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2744,43 +2744,43 @@
     <hyperlink ref="H27" r:id="rId26"/>
     <hyperlink ref="H28" r:id="rId27"/>
     <hyperlink ref="H30" r:id="rId28"/>
-    <hyperlink ref="H29" r:id="rId29"/>
-    <hyperlink ref="H31" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H33" r:id="rId32"/>
-    <hyperlink ref="H34" r:id="rId33"/>
-    <hyperlink ref="H35" r:id="rId34"/>
-    <hyperlink ref="H36" r:id="rId35"/>
-    <hyperlink ref="H37" r:id="rId36"/>
-    <hyperlink ref="H38" r:id="rId37"/>
-    <hyperlink ref="H39" r:id="rId38"/>
-    <hyperlink ref="H40" r:id="rId39"/>
-    <hyperlink ref="H41" r:id="rId40"/>
-    <hyperlink ref="H42" r:id="rId41"/>
-    <hyperlink ref="H43" r:id="rId42"/>
-    <hyperlink ref="H44" r:id="rId43"/>
-    <hyperlink ref="H45" r:id="rId44"/>
-    <hyperlink ref="H46" r:id="rId45"/>
-    <hyperlink ref="H47" r:id="rId46"/>
-    <hyperlink ref="H48" r:id="rId47"/>
-    <hyperlink ref="H49" r:id="rId48"/>
-    <hyperlink ref="H50" r:id="rId49"/>
-    <hyperlink ref="H51" r:id="rId50"/>
-    <hyperlink ref="H52" r:id="rId51"/>
-    <hyperlink ref="H53" r:id="rId52"/>
-    <hyperlink ref="H54" r:id="rId53"/>
-    <hyperlink ref="H55" r:id="rId54"/>
-    <hyperlink ref="H56" r:id="rId55"/>
-    <hyperlink ref="H57" r:id="rId56"/>
-    <hyperlink ref="H58" r:id="rId57"/>
-    <hyperlink ref="H59" r:id="rId58"/>
-    <hyperlink ref="H60" r:id="rId59"/>
-    <hyperlink ref="H61" r:id="rId60"/>
-    <hyperlink ref="H62" r:id="rId61"/>
-    <hyperlink ref="H63" r:id="rId62"/>
-    <hyperlink ref="H64" r:id="rId63"/>
-    <hyperlink ref="H65" r:id="rId64"/>
-    <hyperlink ref="H66" r:id="rId65"/>
+    <hyperlink ref="H31" r:id="rId29"/>
+    <hyperlink ref="H32" r:id="rId30"/>
+    <hyperlink ref="H33" r:id="rId31"/>
+    <hyperlink ref="H34" r:id="rId32"/>
+    <hyperlink ref="H35" r:id="rId33"/>
+    <hyperlink ref="H36" r:id="rId34"/>
+    <hyperlink ref="H37" r:id="rId35"/>
+    <hyperlink ref="H38" r:id="rId36"/>
+    <hyperlink ref="H39" r:id="rId37"/>
+    <hyperlink ref="H40" r:id="rId38"/>
+    <hyperlink ref="H41" r:id="rId39"/>
+    <hyperlink ref="H42" r:id="rId40"/>
+    <hyperlink ref="H43" r:id="rId41"/>
+    <hyperlink ref="H44" r:id="rId42"/>
+    <hyperlink ref="H45" r:id="rId43"/>
+    <hyperlink ref="H46" r:id="rId44"/>
+    <hyperlink ref="H47" r:id="rId45"/>
+    <hyperlink ref="H48" r:id="rId46"/>
+    <hyperlink ref="H49" r:id="rId47"/>
+    <hyperlink ref="H50" r:id="rId48"/>
+    <hyperlink ref="H51" r:id="rId49"/>
+    <hyperlink ref="H52" r:id="rId50"/>
+    <hyperlink ref="H53" r:id="rId51"/>
+    <hyperlink ref="H54" r:id="rId52"/>
+    <hyperlink ref="H55" r:id="rId53"/>
+    <hyperlink ref="H56" r:id="rId54"/>
+    <hyperlink ref="H57" r:id="rId55"/>
+    <hyperlink ref="H58" r:id="rId56"/>
+    <hyperlink ref="H59" r:id="rId57"/>
+    <hyperlink ref="H60" r:id="rId58"/>
+    <hyperlink ref="H61" r:id="rId59"/>
+    <hyperlink ref="H62" r:id="rId60"/>
+    <hyperlink ref="H63" r:id="rId61"/>
+    <hyperlink ref="H64" r:id="rId62"/>
+    <hyperlink ref="H65" r:id="rId63"/>
+    <hyperlink ref="H66" r:id="rId64"/>
+    <hyperlink ref="H29" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -984,9 +984,9 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1047,44 +1047,44 @@
         <v>43277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>43277</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>43280</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1096,47 +1096,47 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1151,24 +1151,24 @@
         <v>43277</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1177,24 +1177,24 @@
         <v>43277</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1203,44 +1203,44 @@
         <v>43277</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>43280</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1252,79 +1252,79 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1333,24 +1333,24 @@
         <v>43277</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1359,24 +1359,24 @@
         <v>43277</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1385,24 +1385,24 @@
         <v>43277</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1411,76 +1411,76 @@
         <v>43277</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>43280</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>43277</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1489,24 +1489,24 @@
         <v>43277</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1515,24 +1515,24 @@
         <v>43277</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1541,18 +1541,18 @@
         <v>43277</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1567,24 +1567,24 @@
         <v>43277</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1593,24 +1593,24 @@
         <v>43277</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1619,44 +1619,44 @@
         <v>43277</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1668,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1697,24 +1697,24 @@
         <v>43277</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1723,24 +1723,24 @@
         <v>43277</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1749,24 +1749,24 @@
         <v>43277</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1775,18 +1775,18 @@
         <v>43277</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1801,24 +1801,24 @@
         <v>43277</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1827,18 +1827,18 @@
         <v>43277</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1853,50 +1853,50 @@
         <v>43277</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1905,24 +1905,24 @@
         <v>43277</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1931,76 +1931,76 @@
         <v>43277</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>43277</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2040,39 +2040,39 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2084,53 +2084,53 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2139,24 +2139,24 @@
         <v>43277</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2165,18 +2165,18 @@
         <v>43277</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2191,24 +2191,24 @@
         <v>43277</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2217,18 +2217,18 @@
         <v>43277</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2240,47 +2240,47 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2295,24 +2295,24 @@
         <v>43277</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>43277</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2352,13 +2352,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2370,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
         <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2399,18 +2399,18 @@
         <v>43277</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2425,18 +2425,18 @@
         <v>43280</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2448,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2477,18 +2477,18 @@
         <v>43280</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2503,44 +2503,44 @@
         <v>43280</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2552,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2578,47 +2578,47 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2633,18 +2633,18 @@
         <v>43280</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2659,18 +2659,18 @@
         <v>43280</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2682,105 +2682,110 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>43280</v>
+        <v>43277</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H66">
+    <sortState ref="A2:H66">
+      <sortCondition ref="A1:A66"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H13" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H19" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H23" r:id="rId22"/>
-    <hyperlink ref="H24" r:id="rId23"/>
-    <hyperlink ref="H25" r:id="rId24"/>
-    <hyperlink ref="H26" r:id="rId25"/>
-    <hyperlink ref="H27" r:id="rId26"/>
-    <hyperlink ref="H28" r:id="rId27"/>
-    <hyperlink ref="H30" r:id="rId28"/>
-    <hyperlink ref="H31" r:id="rId29"/>
-    <hyperlink ref="H32" r:id="rId30"/>
-    <hyperlink ref="H33" r:id="rId31"/>
-    <hyperlink ref="H34" r:id="rId32"/>
-    <hyperlink ref="H35" r:id="rId33"/>
-    <hyperlink ref="H36" r:id="rId34"/>
-    <hyperlink ref="H37" r:id="rId35"/>
-    <hyperlink ref="H38" r:id="rId36"/>
-    <hyperlink ref="H39" r:id="rId37"/>
+    <hyperlink ref="H18" r:id="rId1"/>
+    <hyperlink ref="H45" r:id="rId2"/>
+    <hyperlink ref="H17" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H26" r:id="rId5"/>
+    <hyperlink ref="H29" r:id="rId6"/>
+    <hyperlink ref="H28" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
+    <hyperlink ref="H34" r:id="rId9"/>
+    <hyperlink ref="H35" r:id="rId10"/>
+    <hyperlink ref="H37" r:id="rId11"/>
+    <hyperlink ref="H43" r:id="rId12"/>
+    <hyperlink ref="H46" r:id="rId13"/>
+    <hyperlink ref="H66" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="H10" r:id="rId16"/>
+    <hyperlink ref="H12" r:id="rId17"/>
+    <hyperlink ref="H24" r:id="rId18"/>
+    <hyperlink ref="H16" r:id="rId19"/>
+    <hyperlink ref="H14" r:id="rId20"/>
+    <hyperlink ref="H27" r:id="rId21"/>
+    <hyperlink ref="H33" r:id="rId22"/>
+    <hyperlink ref="H56" r:id="rId23"/>
+    <hyperlink ref="H36" r:id="rId24"/>
+    <hyperlink ref="H44" r:id="rId25"/>
+    <hyperlink ref="H49" r:id="rId26"/>
+    <hyperlink ref="H60" r:id="rId27"/>
+    <hyperlink ref="H62" r:id="rId28"/>
+    <hyperlink ref="H2" r:id="rId29"/>
+    <hyperlink ref="H5" r:id="rId30"/>
+    <hyperlink ref="H6" r:id="rId31"/>
+    <hyperlink ref="H13" r:id="rId32"/>
+    <hyperlink ref="H15" r:id="rId33"/>
+    <hyperlink ref="H23" r:id="rId34"/>
+    <hyperlink ref="H25" r:id="rId35"/>
+    <hyperlink ref="H31" r:id="rId36"/>
+    <hyperlink ref="H32" r:id="rId37"/>
     <hyperlink ref="H40" r:id="rId38"/>
-    <hyperlink ref="H41" r:id="rId39"/>
-    <hyperlink ref="H42" r:id="rId40"/>
-    <hyperlink ref="H43" r:id="rId41"/>
-    <hyperlink ref="H44" r:id="rId42"/>
-    <hyperlink ref="H45" r:id="rId43"/>
-    <hyperlink ref="H46" r:id="rId44"/>
-    <hyperlink ref="H47" r:id="rId45"/>
-    <hyperlink ref="H48" r:id="rId46"/>
-    <hyperlink ref="H49" r:id="rId47"/>
-    <hyperlink ref="H50" r:id="rId48"/>
-    <hyperlink ref="H51" r:id="rId49"/>
+    <hyperlink ref="H47" r:id="rId39"/>
+    <hyperlink ref="H51" r:id="rId40"/>
+    <hyperlink ref="H53" r:id="rId41"/>
+    <hyperlink ref="H59" r:id="rId42"/>
+    <hyperlink ref="H7" r:id="rId43"/>
+    <hyperlink ref="H20" r:id="rId44"/>
+    <hyperlink ref="H21" r:id="rId45"/>
+    <hyperlink ref="H22" r:id="rId46"/>
+    <hyperlink ref="H38" r:id="rId47"/>
+    <hyperlink ref="H39" r:id="rId48"/>
+    <hyperlink ref="H50" r:id="rId49"/>
     <hyperlink ref="H52" r:id="rId50"/>
-    <hyperlink ref="H53" r:id="rId51"/>
-    <hyperlink ref="H54" r:id="rId52"/>
-    <hyperlink ref="H55" r:id="rId53"/>
-    <hyperlink ref="H56" r:id="rId54"/>
-    <hyperlink ref="H57" r:id="rId55"/>
-    <hyperlink ref="H58" r:id="rId56"/>
-    <hyperlink ref="H59" r:id="rId57"/>
-    <hyperlink ref="H60" r:id="rId58"/>
-    <hyperlink ref="H61" r:id="rId59"/>
-    <hyperlink ref="H62" r:id="rId60"/>
-    <hyperlink ref="H63" r:id="rId61"/>
-    <hyperlink ref="H64" r:id="rId62"/>
-    <hyperlink ref="H65" r:id="rId63"/>
-    <hyperlink ref="H66" r:id="rId64"/>
-    <hyperlink ref="H29" r:id="rId65"/>
+    <hyperlink ref="H54" r:id="rId51"/>
+    <hyperlink ref="H65" r:id="rId52"/>
+    <hyperlink ref="H3" r:id="rId53"/>
+    <hyperlink ref="H4" r:id="rId54"/>
+    <hyperlink ref="H9" r:id="rId55"/>
+    <hyperlink ref="H11" r:id="rId56"/>
+    <hyperlink ref="H41" r:id="rId57"/>
+    <hyperlink ref="H42" r:id="rId58"/>
+    <hyperlink ref="H48" r:id="rId59"/>
+    <hyperlink ref="H55" r:id="rId60"/>
+    <hyperlink ref="H57" r:id="rId61"/>
+    <hyperlink ref="H58" r:id="rId62"/>
+    <hyperlink ref="H63" r:id="rId63"/>
+    <hyperlink ref="H64" r:id="rId64"/>
+    <hyperlink ref="H61" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -984,9 +984,9 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>125</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>195</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>126</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>127</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>159</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>82</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>196</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>83</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>197</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>84</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>128</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>87</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>129</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>86</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>7</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>40</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>160</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>161</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>162</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>130</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>85</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>131</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>41</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>88</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>43</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>42</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>132</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>89</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>45</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>46</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>91</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>47</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>163</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>164</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>134</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>198</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>199</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>48</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>92</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>10</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>49</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>135</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>200</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>93</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>165</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>136</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>166</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>137</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>167</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>201</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>90</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>202</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>203</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>138</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>94</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>207</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>95</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>204</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>43280</v>
+        <v>43298</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>205</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>168</v>
@@ -2708,18 +2708,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H66">
-    <sortState ref="A2:H66">
-      <sortCondition ref="A1:A66"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="H18" r:id="rId1"/>
     <hyperlink ref="H45" r:id="rId2"/>

--- a/notes/schools.xlsx
+++ b/notes/schools.xlsx
@@ -984,9 +984,9 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>125</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>195</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>126</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>127</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>159</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>82</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>196</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>83</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>197</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>84</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>128</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>87</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>129</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>86</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
@@ -1451,16 +1451,16 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>7</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>40</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>160</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>161</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>162</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>130</v>
@@ -1607,16 +1607,16 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>85</v>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>131</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>41</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>88</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>43</v>
@@ -1737,16 +1737,16 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>42</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>132</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>89</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>45</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>46</v>
@@ -1919,16 +1919,16 @@
         <v>71</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>91</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>47</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>163</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>164</v>
@@ -2023,16 +2023,16 @@
         <v>122</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>134</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>198</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>199</v>
@@ -2101,16 +2101,16 @@
         <v>33</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>48</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>92</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>10</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>49</v>
@@ -2205,16 +2205,16 @@
         <v>123</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>135</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>200</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>93</v>
@@ -2283,16 +2283,16 @@
         <v>153</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>165</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>136</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>166</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>137</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>167</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>201</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>90</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>202</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>203</v>
@@ -2517,16 +2517,16 @@
         <v>119</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>138</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>94</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>207</v>
@@ -2595,16 +2595,16 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>95</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>204</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>205</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>168</v>
@@ -2699,16 +2699,16 @@
         <v>37</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>43298</v>
+        <v>43391</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>50</v>
